--- a/Financials/Quarterly/NSANY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NSANY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF5CEA-69FD-4AE9-9C18-2DC90C52683F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSANY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>NSANY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24096200</v>
+        <v>27533200</v>
       </c>
       <c r="E8" s="3">
-        <v>30363600</v>
+        <v>25457800</v>
       </c>
       <c r="F8" s="3">
-        <v>25505500</v>
+        <v>24558000</v>
       </c>
       <c r="G8" s="3">
-        <v>25652700</v>
+        <v>30945500</v>
       </c>
       <c r="H8" s="3">
-        <v>24485100</v>
+        <v>25994400</v>
       </c>
       <c r="I8" s="3">
+        <v>26144300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>24954300</v>
+      </c>
+      <c r="K8" s="3">
         <v>30648300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>26110900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>23652200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20166700</v>
+        <v>23008800</v>
       </c>
       <c r="E9" s="3">
-        <v>24791700</v>
+        <v>21217900</v>
       </c>
       <c r="F9" s="3">
-        <v>21229700</v>
+        <v>20553200</v>
       </c>
       <c r="G9" s="3">
-        <v>20919800</v>
+        <v>25266900</v>
       </c>
       <c r="H9" s="3">
-        <v>20109000</v>
+        <v>21636500</v>
       </c>
       <c r="I9" s="3">
+        <v>21320800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20494400</v>
+      </c>
+      <c r="K9" s="3">
         <v>24533400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20996900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18945100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3929500</v>
+        <v>4524400</v>
       </c>
       <c r="E10" s="3">
-        <v>5571900</v>
+        <v>4239900</v>
       </c>
       <c r="F10" s="3">
-        <v>4275900</v>
+        <v>4004800</v>
       </c>
       <c r="G10" s="3">
-        <v>4732900</v>
+        <v>5678700</v>
       </c>
       <c r="H10" s="3">
-        <v>4376100</v>
+        <v>4357800</v>
       </c>
       <c r="I10" s="3">
+        <v>4823600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4459900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6114900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5113900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4707100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,37 +932,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>48700</v>
+        <v>68200</v>
       </c>
       <c r="E14" s="3">
-        <v>298700</v>
+        <v>93400</v>
       </c>
       <c r="F14" s="3">
-        <v>56900</v>
+        <v>49700</v>
       </c>
       <c r="G14" s="3">
-        <v>17200</v>
+        <v>304400</v>
       </c>
       <c r="H14" s="3">
-        <v>33600</v>
+        <v>58000</v>
       </c>
       <c r="I14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-919000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>64800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23176800</v>
+        <v>26667200</v>
       </c>
       <c r="E17" s="3">
-        <v>28794900</v>
+        <v>24636500</v>
       </c>
       <c r="F17" s="3">
-        <v>24831600</v>
+        <v>23621000</v>
       </c>
       <c r="G17" s="3">
-        <v>24529900</v>
+        <v>29346800</v>
       </c>
       <c r="H17" s="3">
-        <v>23158700</v>
+        <v>25307500</v>
       </c>
       <c r="I17" s="3">
+        <v>25000100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23602600</v>
+      </c>
+      <c r="K17" s="3">
         <v>27609400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24725400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>22188700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919400</v>
+        <v>866000</v>
       </c>
       <c r="E18" s="3">
-        <v>1568700</v>
+        <v>821300</v>
       </c>
       <c r="F18" s="3">
-        <v>674000</v>
+        <v>937000</v>
       </c>
       <c r="G18" s="3">
-        <v>1122800</v>
+        <v>1598700</v>
       </c>
       <c r="H18" s="3">
-        <v>1326300</v>
+        <v>686900</v>
       </c>
       <c r="I18" s="3">
+        <v>1144300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1351800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3038900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1385500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1463500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1103,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>531400</v>
+        <v>406100</v>
       </c>
       <c r="E20" s="3">
-        <v>433300</v>
+        <v>680100</v>
       </c>
       <c r="F20" s="3">
-        <v>450400</v>
+        <v>541600</v>
       </c>
       <c r="G20" s="3">
-        <v>484700</v>
+        <v>441600</v>
       </c>
       <c r="H20" s="3">
-        <v>356500</v>
+        <v>459100</v>
       </c>
       <c r="I20" s="3">
+        <v>494000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K20" s="3">
         <v>309400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>346400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3427000</v>
+        <v>3228500</v>
       </c>
       <c r="E21" s="3">
-        <v>3956400</v>
+        <v>3425100</v>
       </c>
       <c r="F21" s="3">
-        <v>3083800</v>
+        <v>3492700</v>
       </c>
       <c r="G21" s="3">
-        <v>3439600</v>
+        <v>4032200</v>
       </c>
       <c r="H21" s="3">
-        <v>3547000</v>
+        <v>3142900</v>
       </c>
       <c r="I21" s="3">
+        <v>3505500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3615000</v>
+      </c>
+      <c r="K21" s="3">
         <v>5122300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3659400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3577200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27900</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>30100</v>
+        <v>23500</v>
       </c>
       <c r="F22" s="3">
-        <v>29100</v>
+        <v>28500</v>
       </c>
       <c r="G22" s="3">
-        <v>21000</v>
+        <v>30600</v>
       </c>
       <c r="H22" s="3">
-        <v>32200</v>
+        <v>29600</v>
       </c>
       <c r="I22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K22" s="3">
         <v>33500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>33000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1422800</v>
+        <v>1241900</v>
       </c>
       <c r="E23" s="3">
-        <v>1971900</v>
+        <v>1478000</v>
       </c>
       <c r="F23" s="3">
-        <v>1095300</v>
+        <v>1450100</v>
       </c>
       <c r="G23" s="3">
-        <v>1586500</v>
+        <v>2009700</v>
       </c>
       <c r="H23" s="3">
-        <v>1650600</v>
+        <v>1116300</v>
       </c>
       <c r="I23" s="3">
+        <v>1616900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1682300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3314800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1698900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1791600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>345500</v>
+        <v>556200</v>
       </c>
       <c r="E24" s="3">
-        <v>430700</v>
+        <v>250600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1600200</v>
+        <v>352100</v>
       </c>
       <c r="G24" s="3">
-        <v>294100</v>
+        <v>439000</v>
       </c>
       <c r="H24" s="3">
-        <v>406000</v>
+        <v>-1630900</v>
       </c>
       <c r="I24" s="3">
+        <v>299700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>413800</v>
+      </c>
+      <c r="K24" s="3">
         <v>986000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>458600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>419800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1077300</v>
+        <v>685700</v>
       </c>
       <c r="E26" s="3">
-        <v>1541200</v>
+        <v>1227400</v>
       </c>
       <c r="F26" s="3">
-        <v>2695500</v>
+        <v>1098000</v>
       </c>
       <c r="G26" s="3">
-        <v>1292400</v>
+        <v>1570700</v>
       </c>
       <c r="H26" s="3">
-        <v>1244600</v>
+        <v>2747200</v>
       </c>
       <c r="I26" s="3">
+        <v>1317100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1268500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2328800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1240300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1371900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1027400</v>
+        <v>636500</v>
       </c>
       <c r="E27" s="3">
-        <v>1496900</v>
+        <v>1179100</v>
       </c>
       <c r="F27" s="3">
-        <v>2675400</v>
+        <v>1047100</v>
       </c>
       <c r="G27" s="3">
-        <v>1255900</v>
+        <v>1525600</v>
       </c>
       <c r="H27" s="3">
-        <v>1196700</v>
+        <v>2726700</v>
       </c>
       <c r="I27" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2211500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1168500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-531400</v>
+        <v>-406100</v>
       </c>
       <c r="E32" s="3">
-        <v>-433300</v>
+        <v>-680100</v>
       </c>
       <c r="F32" s="3">
-        <v>-450400</v>
+        <v>-541600</v>
       </c>
       <c r="G32" s="3">
-        <v>-484700</v>
+        <v>-441600</v>
       </c>
       <c r="H32" s="3">
-        <v>-356500</v>
+        <v>-459100</v>
       </c>
       <c r="I32" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-363300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-309400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-346400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-356200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1027400</v>
+        <v>636500</v>
       </c>
       <c r="E33" s="3">
-        <v>1496900</v>
+        <v>1179100</v>
       </c>
       <c r="F33" s="3">
-        <v>2675400</v>
+        <v>1047100</v>
       </c>
       <c r="G33" s="3">
-        <v>1255900</v>
+        <v>1525600</v>
       </c>
       <c r="H33" s="3">
-        <v>1196700</v>
+        <v>2726700</v>
       </c>
       <c r="I33" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2211500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1168500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1027400</v>
+        <v>636500</v>
       </c>
       <c r="E35" s="3">
-        <v>1496900</v>
+        <v>1179100</v>
       </c>
       <c r="F35" s="3">
-        <v>2675400</v>
+        <v>1047100</v>
       </c>
       <c r="G35" s="3">
-        <v>1255900</v>
+        <v>1525600</v>
       </c>
       <c r="H35" s="3">
-        <v>1196700</v>
+        <v>2726700</v>
       </c>
       <c r="I35" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2211500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1168500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1733,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9477400</v>
+        <v>10658300</v>
       </c>
       <c r="E41" s="3">
-        <v>10066000</v>
+        <v>9825700</v>
       </c>
       <c r="F41" s="3">
-        <v>9941000</v>
+        <v>9659100</v>
       </c>
       <c r="G41" s="3">
-        <v>9283100</v>
+        <v>10258900</v>
       </c>
       <c r="H41" s="3">
-        <v>9126400</v>
+        <v>10131500</v>
       </c>
       <c r="I41" s="3">
+        <v>9461000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9301300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9956400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7121100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7284100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>939300</v>
+        <v>1315700</v>
       </c>
       <c r="E42" s="3">
-        <v>631500</v>
+        <v>1078000</v>
       </c>
       <c r="F42" s="3">
-        <v>1191500</v>
+        <v>957300</v>
       </c>
       <c r="G42" s="3">
-        <v>1389300</v>
+        <v>643600</v>
       </c>
       <c r="H42" s="3">
-        <v>875300</v>
+        <v>1214400</v>
       </c>
       <c r="I42" s="3">
+        <v>1415900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>892100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1077900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>998600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71940100</v>
+        <v>73128800</v>
       </c>
       <c r="E43" s="3">
-        <v>73248800</v>
+        <v>74880900</v>
       </c>
       <c r="F43" s="3">
-        <v>73667500</v>
+        <v>73318800</v>
       </c>
       <c r="G43" s="3">
-        <v>73451900</v>
+        <v>74652600</v>
       </c>
       <c r="H43" s="3">
-        <v>70919000</v>
+        <v>75079400</v>
       </c>
       <c r="I43" s="3">
+        <v>74859600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>72278200</v>
+      </c>
+      <c r="K43" s="3">
         <v>71335000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>69409000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>60437100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12813100</v>
+        <v>13407600</v>
       </c>
       <c r="E44" s="3">
-        <v>11447200</v>
+        <v>13869300</v>
       </c>
       <c r="F44" s="3">
-        <v>15194400</v>
+        <v>13058700</v>
       </c>
       <c r="G44" s="3">
-        <v>14391400</v>
+        <v>11666600</v>
       </c>
       <c r="H44" s="3">
-        <v>12891300</v>
+        <v>15485600</v>
       </c>
       <c r="I44" s="3">
+        <v>14667200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>13138400</v>
+      </c>
+      <c r="K44" s="3">
         <v>11292900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13393300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>11634500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6496700</v>
+        <v>7492000</v>
       </c>
       <c r="E45" s="3">
-        <v>6881100</v>
+        <v>6517700</v>
       </c>
       <c r="F45" s="3">
-        <v>9395700</v>
+        <v>6621300</v>
       </c>
       <c r="G45" s="3">
-        <v>8342300</v>
+        <v>7013000</v>
       </c>
       <c r="H45" s="3">
-        <v>7943500</v>
+        <v>9575700</v>
       </c>
       <c r="I45" s="3">
+        <v>8502100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8095800</v>
+      </c>
+      <c r="K45" s="3">
         <v>8010600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9763100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8685300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>101666700</v>
+        <v>106002400</v>
       </c>
       <c r="E46" s="3">
-        <v>102274600</v>
+        <v>106171600</v>
       </c>
       <c r="F46" s="3">
-        <v>109390000</v>
+        <v>103615200</v>
       </c>
       <c r="G46" s="3">
-        <v>106857900</v>
+        <v>104234800</v>
       </c>
       <c r="H46" s="3">
-        <v>101755600</v>
+        <v>111486600</v>
       </c>
       <c r="I46" s="3">
+        <v>108905900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>103705800</v>
+      </c>
+      <c r="K46" s="3">
         <v>101672800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100685200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>88818100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10899800</v>
+        <v>11491300</v>
       </c>
       <c r="E47" s="3">
-        <v>11200400</v>
+        <v>11716200</v>
       </c>
       <c r="F47" s="3">
-        <v>11085900</v>
+        <v>11108700</v>
       </c>
       <c r="G47" s="3">
-        <v>10854700</v>
+        <v>11415100</v>
       </c>
       <c r="H47" s="3">
-        <v>10411300</v>
+        <v>11298400</v>
       </c>
       <c r="I47" s="3">
+        <v>11062800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10610800</v>
+      </c>
+      <c r="K47" s="3">
         <v>10261100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9513100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7186700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46789800</v>
+        <v>47733400</v>
       </c>
       <c r="E48" s="3">
-        <v>46706200</v>
+        <v>48788400</v>
       </c>
       <c r="F48" s="3">
-        <v>47888200</v>
+        <v>47686600</v>
       </c>
       <c r="G48" s="3">
-        <v>47710900</v>
+        <v>47601300</v>
       </c>
       <c r="H48" s="3">
-        <v>47133100</v>
+        <v>48806000</v>
       </c>
       <c r="I48" s="3">
+        <v>48625300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>48036500</v>
+      </c>
+      <c r="K48" s="3">
         <v>46791200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>47658300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>43218900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1121300</v>
+        <v>1127700</v>
       </c>
       <c r="E49" s="3">
-        <v>1142300</v>
+        <v>1138800</v>
       </c>
       <c r="F49" s="3">
-        <v>1179800</v>
+        <v>1142800</v>
       </c>
       <c r="G49" s="3">
-        <v>1180300</v>
+        <v>1164200</v>
       </c>
       <c r="H49" s="3">
-        <v>1165200</v>
+        <v>1202400</v>
       </c>
       <c r="I49" s="3">
+        <v>1202900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1187500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1133600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1183000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1081300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5151000</v>
+        <v>5076800</v>
       </c>
       <c r="E52" s="3">
-        <v>4899800</v>
+        <v>5125600</v>
       </c>
       <c r="F52" s="3">
-        <v>4001200</v>
+        <v>5249700</v>
       </c>
       <c r="G52" s="3">
-        <v>3634800</v>
+        <v>4993700</v>
       </c>
       <c r="H52" s="3">
-        <v>3551200</v>
+        <v>4077900</v>
       </c>
       <c r="I52" s="3">
+        <v>3704500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3619300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3535600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3664000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3575400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165628600</v>
+        <v>171431600</v>
       </c>
       <c r="E54" s="3">
-        <v>166223200</v>
+        <v>172940700</v>
       </c>
       <c r="F54" s="3">
-        <v>173545100</v>
+        <v>168803000</v>
       </c>
       <c r="G54" s="3">
-        <v>170238600</v>
+        <v>169409000</v>
       </c>
       <c r="H54" s="3">
-        <v>164016400</v>
+        <v>176871200</v>
       </c>
       <c r="I54" s="3">
+        <v>173501300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>167159900</v>
+      </c>
+      <c r="K54" s="3">
         <v>163394300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>162703500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>143880300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13952200</v>
+        <v>14100500</v>
       </c>
       <c r="E57" s="3">
-        <v>14605700</v>
+        <v>14386600</v>
       </c>
       <c r="F57" s="3">
-        <v>13672600</v>
+        <v>14219600</v>
       </c>
       <c r="G57" s="3">
-        <v>14908400</v>
+        <v>14885600</v>
       </c>
       <c r="H57" s="3">
-        <v>13780700</v>
+        <v>13934600</v>
       </c>
       <c r="I57" s="3">
+        <v>15194100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14044800</v>
+      </c>
+      <c r="K57" s="3">
         <v>14002100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13764500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>12326500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28610400</v>
+        <v>34761100</v>
       </c>
       <c r="E58" s="3">
-        <v>24667400</v>
+        <v>32153600</v>
       </c>
       <c r="F58" s="3">
-        <v>29991100</v>
+        <v>29158700</v>
       </c>
       <c r="G58" s="3">
-        <v>27160200</v>
+        <v>25140200</v>
       </c>
       <c r="H58" s="3">
-        <v>29072000</v>
+        <v>30565900</v>
       </c>
       <c r="I58" s="3">
+        <v>27680700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>29629200</v>
+      </c>
+      <c r="K58" s="3">
         <v>27943300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29668600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>23603900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20599300</v>
+        <v>20050200</v>
       </c>
       <c r="E59" s="3">
-        <v>20549600</v>
+        <v>20589000</v>
       </c>
       <c r="F59" s="3">
-        <v>19490800</v>
+        <v>20994100</v>
       </c>
       <c r="G59" s="3">
-        <v>20452800</v>
+        <v>20943500</v>
       </c>
       <c r="H59" s="3">
-        <v>19784200</v>
+        <v>19864300</v>
       </c>
       <c r="I59" s="3">
+        <v>20844800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>20163400</v>
+      </c>
+      <c r="K59" s="3">
         <v>20625500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18644800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16247800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63161900</v>
+        <v>68911700</v>
       </c>
       <c r="E60" s="3">
-        <v>59822700</v>
+        <v>67129200</v>
       </c>
       <c r="F60" s="3">
-        <v>63154400</v>
+        <v>64372400</v>
       </c>
       <c r="G60" s="3">
-        <v>62521300</v>
+        <v>60969200</v>
       </c>
       <c r="H60" s="3">
-        <v>62636900</v>
+        <v>64364800</v>
       </c>
       <c r="I60" s="3">
+        <v>63719600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>63837400</v>
+      </c>
+      <c r="K60" s="3">
         <v>62570900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>62077800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>52178200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40765500</v>
+        <v>39462800</v>
       </c>
       <c r="E61" s="3">
-        <v>43971800</v>
+        <v>40983300</v>
       </c>
       <c r="F61" s="3">
-        <v>48099800</v>
+        <v>41546800</v>
       </c>
       <c r="G61" s="3">
-        <v>45663300</v>
+        <v>44814600</v>
       </c>
       <c r="H61" s="3">
-        <v>41294200</v>
+        <v>49021700</v>
       </c>
       <c r="I61" s="3">
+        <v>46538400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>42085600</v>
+      </c>
+      <c r="K61" s="3">
         <v>40956000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>41555400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>36502400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12081200</v>
+        <v>12068500</v>
       </c>
       <c r="E62" s="3">
-        <v>11854600</v>
+        <v>12606700</v>
       </c>
       <c r="F62" s="3">
-        <v>12604800</v>
+        <v>12312700</v>
       </c>
       <c r="G62" s="3">
-        <v>14395200</v>
+        <v>12081800</v>
       </c>
       <c r="H62" s="3">
-        <v>14112800</v>
+        <v>12846400</v>
       </c>
       <c r="I62" s="3">
+        <v>14671100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14383300</v>
+      </c>
+      <c r="K62" s="3">
         <v>14034900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15566500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14135000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>118586700</v>
+        <v>123171900</v>
       </c>
       <c r="E66" s="3">
-        <v>118344800</v>
+        <v>123423800</v>
       </c>
       <c r="F66" s="3">
-        <v>126427800</v>
+        <v>120859500</v>
       </c>
       <c r="G66" s="3">
-        <v>125113100</v>
+        <v>120612900</v>
       </c>
       <c r="H66" s="3">
-        <v>120665800</v>
+        <v>128850800</v>
       </c>
       <c r="I66" s="3">
+        <v>127510900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>122978400</v>
+      </c>
+      <c r="K66" s="3">
         <v>120266300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>122974300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>106398200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43222800</v>
+        <v>44833900</v>
       </c>
       <c r="E72" s="3">
-        <v>43656400</v>
+        <v>45196800</v>
       </c>
       <c r="F72" s="3">
-        <v>41955000</v>
+        <v>44051200</v>
       </c>
       <c r="G72" s="3">
-        <v>40199200</v>
+        <v>44493100</v>
       </c>
       <c r="H72" s="3">
-        <v>38943600</v>
+        <v>42759100</v>
       </c>
       <c r="I72" s="3">
+        <v>40969600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>39690000</v>
+      </c>
+      <c r="K72" s="3">
         <v>38580300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>36368400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36634700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47041800</v>
+        <v>48259700</v>
       </c>
       <c r="E76" s="3">
-        <v>47878500</v>
+        <v>49516900</v>
       </c>
       <c r="F76" s="3">
-        <v>47117300</v>
+        <v>47943400</v>
       </c>
       <c r="G76" s="3">
-        <v>45125500</v>
+        <v>48796100</v>
       </c>
       <c r="H76" s="3">
-        <v>43350700</v>
+        <v>48020300</v>
       </c>
       <c r="I76" s="3">
+        <v>45990400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44181500</v>
+      </c>
+      <c r="K76" s="3">
         <v>43128100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39729200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37482100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1027400</v>
+        <v>636500</v>
       </c>
       <c r="E81" s="3">
-        <v>1496900</v>
+        <v>1179100</v>
       </c>
       <c r="F81" s="3">
-        <v>2675400</v>
+        <v>1047100</v>
       </c>
       <c r="G81" s="3">
-        <v>1255900</v>
+        <v>1525600</v>
       </c>
       <c r="H81" s="3">
-        <v>1196700</v>
+        <v>2726700</v>
       </c>
       <c r="I81" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1219600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2211500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1168500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1976300</v>
+        <v>1956400</v>
       </c>
       <c r="E83" s="3">
-        <v>1954500</v>
+        <v>1923700</v>
       </c>
       <c r="F83" s="3">
-        <v>1959400</v>
+        <v>2014200</v>
       </c>
       <c r="G83" s="3">
-        <v>1832100</v>
+        <v>1991900</v>
       </c>
       <c r="H83" s="3">
-        <v>1864200</v>
+        <v>1997000</v>
       </c>
       <c r="I83" s="3">
+        <v>1867300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1899900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1774100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1927400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1757400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2868500</v>
+        <v>2057300</v>
       </c>
       <c r="E89" s="3">
-        <v>7336800</v>
+        <v>1831700</v>
       </c>
       <c r="F89" s="3">
-        <v>-796000</v>
+        <v>2923500</v>
       </c>
       <c r="G89" s="3">
-        <v>1982100</v>
+        <v>7477400</v>
       </c>
       <c r="H89" s="3">
-        <v>979000</v>
+        <v>-811200</v>
       </c>
       <c r="I89" s="3">
+        <v>2020100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>997800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5421200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1633800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1875900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3632800</v>
+        <v>-858600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3950400</v>
+        <v>-891400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4002600</v>
+        <v>-914100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4237700</v>
+        <v>-979400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4035700</v>
+        <v>-836500</v>
       </c>
       <c r="I91" s="3">
+        <v>-813100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-976200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4429700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3811100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3649100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1209700</v>
+        <v>-2454200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1693200</v>
+        <v>-2442400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2986500</v>
+        <v>-1232900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2890100</v>
+        <v>-1725600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2610600</v>
+        <v>-3043700</v>
       </c>
       <c r="I94" s="3">
+        <v>-2945400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2660600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2114500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4730700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2573700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-919200</v>
+        <v>-1007700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-919400</v>
+        <v>-936800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-832700</v>
+        <v>-937100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-848700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-845000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1822500</v>
+        <v>1648000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5935500</v>
+        <v>848200</v>
       </c>
       <c r="F100" s="3">
-        <v>4125000</v>
+        <v>-1857400</v>
       </c>
       <c r="G100" s="3">
-        <v>1500400</v>
+        <v>-6049200</v>
       </c>
       <c r="H100" s="3">
-        <v>636500</v>
+        <v>4204100</v>
       </c>
       <c r="I100" s="3">
+        <v>1529200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>648700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-573000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2812300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-116700</v>
+        <v>-180800</v>
       </c>
       <c r="E101" s="3">
-        <v>-143400</v>
+        <v>49700</v>
       </c>
       <c r="F101" s="3">
-        <v>117600</v>
+        <v>-119000</v>
       </c>
       <c r="G101" s="3">
-        <v>105400</v>
+        <v>-146200</v>
       </c>
       <c r="H101" s="3">
-        <v>-39400</v>
+        <v>119900</v>
       </c>
       <c r="I101" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="K101" s="3">
         <v>181700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>342000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-341700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280500</v>
+        <v>1070300</v>
       </c>
       <c r="E102" s="3">
-        <v>-435200</v>
+        <v>287200</v>
       </c>
       <c r="F102" s="3">
-        <v>460200</v>
+        <v>-285800</v>
       </c>
       <c r="G102" s="3">
-        <v>697900</v>
+        <v>-443600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1034400</v>
+        <v>469000</v>
       </c>
       <c r="I102" s="3">
+        <v>711200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1054200</v>
+      </c>
+      <c r="K102" s="3">
         <v>2915400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>57400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-511700</v>
       </c>
     </row>

--- a/Financials/Quarterly/NSANY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NSANY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF5CEA-69FD-4AE9-9C18-2DC90C52683F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NSANY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>NSANY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27533200</v>
+        <v>23912600</v>
       </c>
       <c r="E8" s="3">
-        <v>25457800</v>
+        <v>21565300</v>
       </c>
       <c r="F8" s="3">
-        <v>24558000</v>
+        <v>27232000</v>
       </c>
       <c r="G8" s="3">
-        <v>30945500</v>
+        <v>27685400</v>
       </c>
       <c r="H8" s="3">
+        <v>25598600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24693800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>31116700</v>
+      </c>
+      <c r="K8" s="3">
         <v>25994400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>26144300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>24954300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>30648300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>26110900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>23652200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23008800</v>
+        <v>19993300</v>
       </c>
       <c r="E9" s="3">
-        <v>21217900</v>
+        <v>18501800</v>
       </c>
       <c r="F9" s="3">
-        <v>20553200</v>
+        <v>22765900</v>
       </c>
       <c r="G9" s="3">
-        <v>25266900</v>
+        <v>23136000</v>
       </c>
       <c r="H9" s="3">
+        <v>21335200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>20666800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25406600</v>
+      </c>
+      <c r="K9" s="3">
         <v>21636500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>21320800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>20494400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>24533400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>20996900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>18945100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4524400</v>
+        <v>3919300</v>
       </c>
       <c r="E10" s="3">
-        <v>4239900</v>
+        <v>3063500</v>
       </c>
       <c r="F10" s="3">
-        <v>4004800</v>
+        <v>4466200</v>
       </c>
       <c r="G10" s="3">
-        <v>5678700</v>
+        <v>4549400</v>
       </c>
       <c r="H10" s="3">
+        <v>4263400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5710100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4357800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>4823600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>4459900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>6114900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>5113900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>4707100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,8 +907,17 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,43 +951,61 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68200</v>
+        <v>26300</v>
       </c>
       <c r="E14" s="3">
-        <v>93400</v>
+        <v>105600</v>
       </c>
       <c r="F14" s="3">
-        <v>49700</v>
+        <v>558900</v>
       </c>
       <c r="G14" s="3">
-        <v>304400</v>
+        <v>68600</v>
       </c>
       <c r="H14" s="3">
+        <v>94000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>49900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K14" s="3">
         <v>58000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>17500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>34200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>-919000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>64800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1039,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26667200</v>
+        <v>23666200</v>
       </c>
       <c r="E17" s="3">
-        <v>24636500</v>
+        <v>21656300</v>
       </c>
       <c r="F17" s="3">
-        <v>23621000</v>
+        <v>27749500</v>
       </c>
       <c r="G17" s="3">
-        <v>29346800</v>
+        <v>26814700</v>
       </c>
       <c r="H17" s="3">
+        <v>24772800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23751700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>29509100</v>
+      </c>
+      <c r="K17" s="3">
         <v>25307500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>25000100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>23602600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>27609400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>24725400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>22188700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>866000</v>
+        <v>246400</v>
       </c>
       <c r="E18" s="3">
-        <v>821300</v>
+        <v>-91000</v>
       </c>
       <c r="F18" s="3">
-        <v>937000</v>
+        <v>-517500</v>
       </c>
       <c r="G18" s="3">
-        <v>1598700</v>
+        <v>870800</v>
       </c>
       <c r="H18" s="3">
+        <v>825900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>942200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1607600</v>
+      </c>
+      <c r="K18" s="3">
         <v>686900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1144300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>1351800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3038900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1385500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>1463500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,183 +1166,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>406100</v>
+        <v>487100</v>
       </c>
       <c r="E20" s="3">
-        <v>680100</v>
+        <v>361000</v>
       </c>
       <c r="F20" s="3">
-        <v>541600</v>
+        <v>706800</v>
       </c>
       <c r="G20" s="3">
-        <v>441600</v>
+        <v>408300</v>
       </c>
       <c r="H20" s="3">
+        <v>683900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>544600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>444000</v>
+      </c>
+      <c r="K20" s="3">
         <v>459100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>494000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>363300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>309400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>346400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3228500</v>
+        <v>2513300</v>
       </c>
       <c r="E21" s="3">
-        <v>3425100</v>
+        <v>2231000</v>
       </c>
       <c r="F21" s="3">
-        <v>3492700</v>
+        <v>2130600</v>
       </c>
       <c r="G21" s="3">
-        <v>4032200</v>
+        <v>3246400</v>
       </c>
       <c r="H21" s="3">
+        <v>3444100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3512000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4054500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3142900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>3505500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>3615000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>5122300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>3659400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>3577200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>26000</v>
       </c>
       <c r="E22" s="3">
-        <v>23500</v>
+        <v>25800</v>
       </c>
       <c r="F22" s="3">
-        <v>28500</v>
+        <v>39900</v>
       </c>
       <c r="G22" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="H22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K22" s="3">
         <v>29600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>21400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>32900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>33500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>33000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1241900</v>
+        <v>707600</v>
       </c>
       <c r="E23" s="3">
-        <v>1478000</v>
+        <v>244300</v>
       </c>
       <c r="F23" s="3">
-        <v>1450100</v>
+        <v>149300</v>
       </c>
       <c r="G23" s="3">
-        <v>2009700</v>
+        <v>1248800</v>
       </c>
       <c r="H23" s="3">
+        <v>1486100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1458100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2020800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1116300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1616900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1682300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>3314800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1698900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>1791600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>556200</v>
+        <v>132600</v>
       </c>
       <c r="E24" s="3">
-        <v>250600</v>
+        <v>151200</v>
       </c>
       <c r="F24" s="3">
-        <v>352100</v>
+        <v>69000</v>
       </c>
       <c r="G24" s="3">
-        <v>439000</v>
+        <v>559300</v>
       </c>
       <c r="H24" s="3">
+        <v>252000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1630900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>299700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>413800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>986000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>458600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>419800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>685700</v>
+        <v>575000</v>
       </c>
       <c r="E26" s="3">
-        <v>1227400</v>
+        <v>93100</v>
       </c>
       <c r="F26" s="3">
-        <v>1098000</v>
+        <v>80300</v>
       </c>
       <c r="G26" s="3">
-        <v>1570700</v>
+        <v>689500</v>
       </c>
       <c r="H26" s="3">
+        <v>1234200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1104100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1579400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2747200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1317100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1268500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>2328800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1240300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1371900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>636500</v>
+        <v>536200</v>
       </c>
       <c r="E27" s="3">
-        <v>1179100</v>
+        <v>58000</v>
       </c>
       <c r="F27" s="3">
-        <v>1047100</v>
+        <v>22500</v>
       </c>
       <c r="G27" s="3">
-        <v>1525600</v>
+        <v>640000</v>
       </c>
       <c r="H27" s="3">
+        <v>1185600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2726700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1280000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1219600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>2211500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>1168500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1556,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-406100</v>
+        <v>-487100</v>
       </c>
       <c r="E32" s="3">
-        <v>-680100</v>
+        <v>-361000</v>
       </c>
       <c r="F32" s="3">
-        <v>-541600</v>
+        <v>-706800</v>
       </c>
       <c r="G32" s="3">
-        <v>-441600</v>
+        <v>-408300</v>
       </c>
       <c r="H32" s="3">
+        <v>-683900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-459100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-494000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-363300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-309400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-346400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-356200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>636500</v>
+        <v>536200</v>
       </c>
       <c r="E33" s="3">
-        <v>1179100</v>
+        <v>58000</v>
       </c>
       <c r="F33" s="3">
-        <v>1047100</v>
+        <v>22500</v>
       </c>
       <c r="G33" s="3">
-        <v>1525600</v>
+        <v>640000</v>
       </c>
       <c r="H33" s="3">
+        <v>1185600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2726700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1280000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1219600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>2211500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>1168500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>636500</v>
+        <v>536200</v>
       </c>
       <c r="E35" s="3">
-        <v>1179100</v>
+        <v>58000</v>
       </c>
       <c r="F35" s="3">
-        <v>1047100</v>
+        <v>22500</v>
       </c>
       <c r="G35" s="3">
-        <v>1525600</v>
+        <v>640000</v>
       </c>
       <c r="H35" s="3">
+        <v>1185600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2726700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1280000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1219600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>2211500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>1168500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,323 +1955,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10658300</v>
+        <v>9915800</v>
       </c>
       <c r="E41" s="3">
-        <v>9825700</v>
+        <v>10113600</v>
       </c>
       <c r="F41" s="3">
-        <v>9659100</v>
+        <v>11086100</v>
       </c>
       <c r="G41" s="3">
-        <v>10258900</v>
+        <v>10717300</v>
       </c>
       <c r="H41" s="3">
+        <v>9880000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9712500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10315700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10131500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>9461000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>9301300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>9956400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>7121100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>7284100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1315700</v>
+        <v>2339000</v>
       </c>
       <c r="E42" s="3">
-        <v>1078000</v>
+        <v>1079300</v>
       </c>
       <c r="F42" s="3">
-        <v>957300</v>
+        <v>1267800</v>
       </c>
       <c r="G42" s="3">
-        <v>643600</v>
+        <v>1322900</v>
       </c>
       <c r="H42" s="3">
+        <v>1083900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>962600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>647200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1214400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>1415900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>892100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>1077900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>998600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>777200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73128800</v>
+        <v>67593400</v>
       </c>
       <c r="E43" s="3">
-        <v>74880900</v>
+        <v>68362100</v>
       </c>
       <c r="F43" s="3">
-        <v>73318800</v>
+        <v>73180600</v>
       </c>
       <c r="G43" s="3">
-        <v>74652600</v>
+        <v>73533300</v>
       </c>
       <c r="H43" s="3">
+        <v>75295100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>73724400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>75065500</v>
+      </c>
+      <c r="K43" s="3">
         <v>75079400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>74859600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>72278200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>71335000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>69409000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>60437100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13407600</v>
+        <v>12572800</v>
       </c>
       <c r="E44" s="3">
-        <v>13869300</v>
+        <v>12546700</v>
       </c>
       <c r="F44" s="3">
-        <v>13058700</v>
+        <v>11434500</v>
       </c>
       <c r="G44" s="3">
-        <v>11666600</v>
+        <v>13481800</v>
       </c>
       <c r="H44" s="3">
+        <v>13946000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13130900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11731100</v>
+      </c>
+      <c r="K44" s="3">
         <v>15485600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>14667200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>13138400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>11292900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>13393300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>11634500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7492000</v>
+        <v>6573700</v>
       </c>
       <c r="E45" s="3">
-        <v>6517700</v>
+        <v>6959500</v>
       </c>
       <c r="F45" s="3">
-        <v>6621300</v>
+        <v>8594100</v>
       </c>
       <c r="G45" s="3">
-        <v>7013000</v>
+        <v>7533400</v>
       </c>
       <c r="H45" s="3">
+        <v>6553800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6657900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7051800</v>
+      </c>
+      <c r="K45" s="3">
         <v>9575700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>8502100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>8095800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>8010600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>9763100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>8685300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>106002400</v>
+        <v>98994700</v>
       </c>
       <c r="E46" s="3">
-        <v>106171600</v>
+        <v>99061300</v>
       </c>
       <c r="F46" s="3">
-        <v>103615200</v>
+        <v>105563100</v>
       </c>
       <c r="G46" s="3">
-        <v>104234800</v>
+        <v>106588700</v>
       </c>
       <c r="H46" s="3">
+        <v>106758800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>104188300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>104811300</v>
+      </c>
+      <c r="K46" s="3">
         <v>111486600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>108905900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>103705800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>101672800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>100685200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>88818100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11491300</v>
+        <v>11799400</v>
       </c>
       <c r="E47" s="3">
-        <v>11716200</v>
+        <v>12227300</v>
       </c>
       <c r="F47" s="3">
-        <v>11108700</v>
+        <v>12148900</v>
       </c>
       <c r="G47" s="3">
-        <v>11415100</v>
+        <v>11554900</v>
       </c>
       <c r="H47" s="3">
+        <v>11781000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11170100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>11478200</v>
+      </c>
+      <c r="K47" s="3">
         <v>11298400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>11062800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>10610800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>10261100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>9513100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>7186700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47733400</v>
+        <v>46986400</v>
       </c>
       <c r="E48" s="3">
-        <v>48788400</v>
+        <v>47522200</v>
       </c>
       <c r="F48" s="3">
-        <v>47686600</v>
+        <v>48228800</v>
       </c>
       <c r="G48" s="3">
-        <v>47601300</v>
+        <v>47997400</v>
       </c>
       <c r="H48" s="3">
+        <v>49058200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>47950300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>47864600</v>
+      </c>
+      <c r="K48" s="3">
         <v>48806000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>48625300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>48036500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>46791200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>47658300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>43218900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1127700</v>
+        <v>1107400</v>
       </c>
       <c r="E49" s="3">
-        <v>1138800</v>
+        <v>1138600</v>
       </c>
       <c r="F49" s="3">
-        <v>1142800</v>
+        <v>1222300</v>
       </c>
       <c r="G49" s="3">
-        <v>1164200</v>
+        <v>1133900</v>
       </c>
       <c r="H49" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1149200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1170600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1202400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1202900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1187500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>1133600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1183000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1081300</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5076800</v>
+        <v>5212900</v>
       </c>
       <c r="E52" s="3">
-        <v>5125600</v>
+        <v>5265800</v>
       </c>
       <c r="F52" s="3">
-        <v>5249700</v>
+        <v>5113600</v>
       </c>
       <c r="G52" s="3">
-        <v>4993700</v>
+        <v>5104900</v>
       </c>
       <c r="H52" s="3">
+        <v>5154000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5278700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5021300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4077900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>3704500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>3619300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>3535600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>3664000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>3575400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171431600</v>
+        <v>164100900</v>
       </c>
       <c r="E54" s="3">
-        <v>172940700</v>
+        <v>165215300</v>
       </c>
       <c r="F54" s="3">
-        <v>168803000</v>
+        <v>172276800</v>
       </c>
       <c r="G54" s="3">
-        <v>169409000</v>
+        <v>172379800</v>
       </c>
       <c r="H54" s="3">
+        <v>173897200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>169736600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>170346000</v>
+      </c>
+      <c r="K54" s="3">
         <v>176871200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>173501300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>167159900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>163394300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>162703500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>143880300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2607,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14100500</v>
+        <v>13970000</v>
       </c>
       <c r="E57" s="3">
-        <v>14386600</v>
+        <v>13313100</v>
       </c>
       <c r="F57" s="3">
-        <v>14219600</v>
+        <v>14366300</v>
       </c>
       <c r="G57" s="3">
-        <v>14885600</v>
+        <v>14178500</v>
       </c>
       <c r="H57" s="3">
+        <v>14466200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>14298300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14967900</v>
+      </c>
+      <c r="K57" s="3">
         <v>13934600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>15194100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>14044800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>14002100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>13764500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>12326500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34761100</v>
+        <v>35366200</v>
       </c>
       <c r="E58" s="3">
-        <v>32153600</v>
+        <v>33215400</v>
       </c>
       <c r="F58" s="3">
-        <v>29158700</v>
+        <v>34384000</v>
       </c>
       <c r="G58" s="3">
-        <v>25140200</v>
+        <v>34953300</v>
       </c>
       <c r="H58" s="3">
+        <v>32331400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>29320000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>25279200</v>
+      </c>
+      <c r="K58" s="3">
         <v>30565900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>27680700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>29629200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>27943300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>29668600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>23603900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20050200</v>
+        <v>18597300</v>
       </c>
       <c r="E59" s="3">
-        <v>20589000</v>
+        <v>19478700</v>
       </c>
       <c r="F59" s="3">
-        <v>20994100</v>
+        <v>21520200</v>
       </c>
       <c r="G59" s="3">
-        <v>20943500</v>
+        <v>20161100</v>
       </c>
       <c r="H59" s="3">
+        <v>20702900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>21110200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>21059300</v>
+      </c>
+      <c r="K59" s="3">
         <v>19864300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>20844800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>20163400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>20625500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>18644800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>16247800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68911700</v>
+        <v>67933500</v>
       </c>
       <c r="E60" s="3">
-        <v>67129200</v>
+        <v>66007200</v>
       </c>
       <c r="F60" s="3">
-        <v>64372400</v>
+        <v>70270500</v>
       </c>
       <c r="G60" s="3">
-        <v>60969200</v>
+        <v>69292900</v>
       </c>
       <c r="H60" s="3">
+        <v>67500500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>64728400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>61306500</v>
+      </c>
+      <c r="K60" s="3">
         <v>64364800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>63719600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>63837400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>62570900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>62077800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>52178200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39462800</v>
+        <v>34898000</v>
       </c>
       <c r="E61" s="3">
-        <v>40983300</v>
+        <v>37334000</v>
       </c>
       <c r="F61" s="3">
-        <v>41546800</v>
+        <v>38605800</v>
       </c>
       <c r="G61" s="3">
-        <v>44814600</v>
+        <v>39681000</v>
       </c>
       <c r="H61" s="3">
+        <v>41210000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>41776600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>45062400</v>
+      </c>
+      <c r="K61" s="3">
         <v>49021700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>46538400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>42085600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>40956000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>41555400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>36502400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12068500</v>
+        <v>11708600</v>
       </c>
       <c r="E62" s="3">
-        <v>12606700</v>
+        <v>11974500</v>
       </c>
       <c r="F62" s="3">
-        <v>12312700</v>
+        <v>12282700</v>
       </c>
       <c r="G62" s="3">
-        <v>12081800</v>
+        <v>12135200</v>
       </c>
       <c r="H62" s="3">
+        <v>12676400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>12380800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12148600</v>
+      </c>
+      <c r="K62" s="3">
         <v>12846400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>14671100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>14383300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>14034900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>15566500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>14135000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>123171900</v>
+        <v>117783200</v>
       </c>
       <c r="E66" s="3">
-        <v>123423800</v>
+        <v>118577700</v>
       </c>
       <c r="F66" s="3">
-        <v>120859500</v>
+        <v>124075500</v>
       </c>
       <c r="G66" s="3">
-        <v>120612900</v>
+        <v>123853200</v>
       </c>
       <c r="H66" s="3">
+        <v>124106400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>121528000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>121280000</v>
+      </c>
+      <c r="K66" s="3">
         <v>128850800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>127510900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>122978400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>120266300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>122974300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>106398200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44833900</v>
+        <v>44554300</v>
       </c>
       <c r="E72" s="3">
-        <v>45196800</v>
+        <v>44018200</v>
       </c>
       <c r="F72" s="3">
-        <v>44051200</v>
+        <v>45104400</v>
       </c>
       <c r="G72" s="3">
-        <v>44493100</v>
+        <v>45081900</v>
       </c>
       <c r="H72" s="3">
+        <v>45446800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>44294800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>44739200</v>
+      </c>
+      <c r="K72" s="3">
         <v>42759100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>40969600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>39690000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>38580300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>36368400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>36634700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48259700</v>
+        <v>46317700</v>
       </c>
       <c r="E76" s="3">
-        <v>49516900</v>
+        <v>46637600</v>
       </c>
       <c r="F76" s="3">
-        <v>47943400</v>
+        <v>48201300</v>
       </c>
       <c r="G76" s="3">
-        <v>48796100</v>
+        <v>48526600</v>
       </c>
       <c r="H76" s="3">
+        <v>49790700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>48208600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49066000</v>
+      </c>
+      <c r="K76" s="3">
         <v>48020300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>45990400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>44181500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>43128100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>39729200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>37482100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>636500</v>
+        <v>536200</v>
       </c>
       <c r="E81" s="3">
-        <v>1179100</v>
+        <v>58000</v>
       </c>
       <c r="F81" s="3">
-        <v>1047100</v>
+        <v>22500</v>
       </c>
       <c r="G81" s="3">
-        <v>1525600</v>
+        <v>640000</v>
       </c>
       <c r="H81" s="3">
+        <v>1185600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1052900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2726700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1280000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1219600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>2211500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>1168500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1295500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1956400</v>
+        <v>1779700</v>
       </c>
       <c r="E83" s="3">
-        <v>1923700</v>
+        <v>1961000</v>
       </c>
       <c r="F83" s="3">
-        <v>2014200</v>
+        <v>1941300</v>
       </c>
       <c r="G83" s="3">
-        <v>1991900</v>
+        <v>1967300</v>
       </c>
       <c r="H83" s="3">
+        <v>1934300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2025300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2002900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1997000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1867300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>1899900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1774100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1927400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1757400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2057300</v>
+        <v>2803500</v>
       </c>
       <c r="E89" s="3">
-        <v>1831700</v>
+        <v>2561800</v>
       </c>
       <c r="F89" s="3">
-        <v>2923500</v>
+        <v>6348500</v>
       </c>
       <c r="G89" s="3">
-        <v>7477400</v>
+        <v>2068700</v>
       </c>
       <c r="H89" s="3">
+        <v>1841900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2939700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7518800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-811200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>2020100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>997800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>5421200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1633800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1875900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-858600</v>
+        <v>-983700</v>
       </c>
       <c r="E91" s="3">
-        <v>-891400</v>
+        <v>-1235000</v>
       </c>
       <c r="F91" s="3">
-        <v>-914100</v>
+        <v>-1162400</v>
       </c>
       <c r="G91" s="3">
-        <v>-979400</v>
+        <v>-863300</v>
       </c>
       <c r="H91" s="3">
+        <v>-896300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-919100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-984800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-836500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-813100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-976200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-4429700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-3811100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-3649100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2454200</v>
+        <v>-1429000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2442400</v>
+        <v>-1266500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1232900</v>
+        <v>-4140600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1725600</v>
+        <v>-2467700</v>
       </c>
       <c r="H94" s="3">
+        <v>-2455900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1239700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1735200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3043700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-2945400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-2660600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-2114500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-4730700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-2573700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4136,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1007700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1013700</v>
       </c>
       <c r="F96" s="3">
-        <v>-936800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1013300</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-942000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-937100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-848700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-845000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1648000</v>
+        <v>-127000</v>
       </c>
       <c r="E100" s="3">
-        <v>848200</v>
+        <v>-2425300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1857400</v>
+        <v>-1798000</v>
       </c>
       <c r="G100" s="3">
-        <v>-6049200</v>
+        <v>1657100</v>
       </c>
       <c r="H100" s="3">
+        <v>852800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1867700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6082700</v>
+      </c>
+      <c r="K100" s="3">
         <v>4204100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>1529200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>648700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-573000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>2812300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>527900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-180800</v>
+        <v>-185700</v>
       </c>
       <c r="E101" s="3">
-        <v>49700</v>
+        <v>-30900</v>
       </c>
       <c r="F101" s="3">
-        <v>-119000</v>
+        <v>-96300</v>
       </c>
       <c r="G101" s="3">
-        <v>-146200</v>
+        <v>-181800</v>
       </c>
       <c r="H101" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="K101" s="3">
         <v>119900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>107400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-40100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>181700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>342000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-341700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1070300</v>
+        <v>1061800</v>
       </c>
       <c r="E102" s="3">
-        <v>287200</v>
+        <v>-1160900</v>
       </c>
       <c r="F102" s="3">
-        <v>-285800</v>
+        <v>313600</v>
       </c>
       <c r="G102" s="3">
-        <v>-443600</v>
+        <v>1076300</v>
       </c>
       <c r="H102" s="3">
+        <v>288800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-287400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-446000</v>
+      </c>
+      <c r="K102" s="3">
         <v>469000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>711200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-1054200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>2915400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>57400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-511700</v>
       </c>
     </row>
